--- a/CashFlow/DHI_cashflow.xlsx
+++ b/CashFlow/DHI_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-2285900000.0</v>
+        <v>52429000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-1663600000.0</v>
+        <v>50178000000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>11543400000.0</v>
+        <v>48500000000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>11816900000.0</v>
+        <v>36437200000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>11781600000.0</v>
+        <v>24347300000.0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>12124600000.0</v>
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3071500000.0</v>
+        <v>1805100000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3215000000.0</v>
+        <v>726200000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2463600000.0</v>
+        <v>566200000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1540200000.0</v>
+        <v>391200000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>868100000.0</v>
+        <v>219200000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>132000000.0</v>
